--- a/docs/HowDo-테이블명세 - 복사본.xlsx
+++ b/docs/HowDo-테이블명세 - 복사본.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Project\HowDo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8EF2E8-6DDF-4774-A723-142DE700DB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC63B05-4E55-4020-9DD0-B39B9A0046AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="게시글" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="107">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -402,10 +402,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PRIMARY KEY(a_code, b_code)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>각 게시글의 첨부파일을 저장하는 테이블(게시글:첨부파일 = 1:N)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -443,6 +439,10 @@
   </si>
   <si>
     <t>b_group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY(a_code)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1006,6 +1006,18 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1021,13 +1033,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1036,17 +1048,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1056,9 +1059,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1404,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD12804-0DC3-4CAE-BB11-B7F71BC83389}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2063,20 +2063,20 @@
       <c r="C2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="41">
         <v>44942</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="42"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -2088,36 +2088,36 @@
       <c r="C3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="43"/>
+      <c r="J3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="C4" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2179,7 +2179,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="42"/>
+      <c r="L6" s="32"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
@@ -2300,7 +2300,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2404,13 +2404,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>50</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>51</v>
@@ -2421,7 +2421,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2434,7 +2434,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -2557,7 +2557,7 @@
         <v>69</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -2679,7 +2679,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3337,20 +3337,20 @@
       <c r="C2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="41">
         <v>44942</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="42"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3362,36 +3362,36 @@
       <c r="C3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="43"/>
+      <c r="J3" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="C4" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3806,7 +3806,7 @@
         <v>69</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -3928,7 +3928,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:L4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4586,20 +4586,20 @@
       <c r="C2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="41">
         <v>44946</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="42"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -4611,36 +4611,36 @@
       <c r="C3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="43"/>
+      <c r="J3" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="C4" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4704,7 +4704,7 @@
       <c r="K6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="42"/>
+      <c r="L6" s="32"/>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
@@ -4745,12 +4745,12 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="41"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="45"/>
       <c r="K8" s="10"/>
       <c r="L8" s="15"/>
     </row>
@@ -5113,8 +5113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A4E7DB-DA91-44E0-850E-E450066FCAF7}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5772,20 +5772,20 @@
       <c r="C2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38">
+      <c r="I2" s="40"/>
+      <c r="J2" s="41">
         <v>44946</v>
       </c>
-      <c r="K2" s="39"/>
+      <c r="K2" s="42"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -5797,36 +5797,36 @@
       <c r="C3" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="40" t="s">
+      <c r="I3" s="43"/>
+      <c r="J3" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
+      <c r="C4" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -5905,9 +5905,7 @@
         <v>34</v>
       </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
         <v>37</v>
@@ -5934,7 +5932,7 @@
         <v>86</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="43"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -5957,7 +5955,7 @@
         <v>41</v>
       </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="43"/>
+      <c r="H9" s="33"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -6013,16 +6011,16 @@
       <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="49"/>
       <c r="K12" s="10"/>
       <c r="L12" s="15"/>
     </row>
@@ -6030,12 +6028,12 @@
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -6045,12 +6043,12 @@
       <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -6060,12 +6058,12 @@
       <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
